--- a/data/consumos.xlsx
+++ b/data/consumos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,270 +470,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1716764491</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Salchipapas</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Transferencia</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>05/03/2025 17:41:00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Completado</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1713640025</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Coca cola pequeña</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Transferencia</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>05/03/2025 17:51:40</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>1724128713</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gaseosa de sabores mediana</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Transferencia</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>05/03/2025 17:52:01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1716764911</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Salchipapas2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Efectivo</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>05/03/2025 17:54:21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6546132165</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Gaseosa de sabores mediana</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Transferencia</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>05/03/2025 17:55:40</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>1716467791</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Salchipapas2</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Transferencia</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>05/03/2025 18:03:32</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1716467791</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Fuze Tea mediano</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Transferencia</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>05/03/2025 18:03:42</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6516516516</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Coca cola pequeña</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Efectivo</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>05/03/2025 18:09:07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>CANCELADO</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/consumos.xlsx
+++ b/data/consumos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,231 @@
           <t>Estado</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Monto_Recibido</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cambio</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Referencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1716764491</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Salchipapa</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>07/03/2025 22:48:47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1724128713</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Salchipapa</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>07/03/2025 22:50:46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1720741741</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gorro de baño</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>07/03/2025 22:51:22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1716161651</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Salchipapa</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>07/03/2025 22:52:01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Completado</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1711515151</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Salchipapa</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>07/03/2025 22:54:08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1251561515</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Salchipapa</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>07/03/2025 22:54:57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1251561515</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Gorro de baño</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>07/03/2025 22:55:02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/consumos.xlsx
+++ b/data/consumos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cédula</t>
+          <t>Mesa</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -456,12 +456,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Método_Pago</t>
+          <t>Fecha_Hora</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Fecha_Hora</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -471,12 +471,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Monto_Recibido</t>
+          <t>Categoría</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Cambio</t>
+          <t>Metodo_Pago</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -484,216 +484,6 @@
           <t>Referencia</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1716764491</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Salchipapa</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>07/03/2025 22:48:47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Completado</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1724128713</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Salchipapa</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>07/03/2025 22:50:46</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Completado</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1720741741</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gorro de baño</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>07/03/2025 22:51:22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Completado</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1716161651</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Salchipapa</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>07/03/2025 22:52:01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Completado</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1711515151</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Salchipapa</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>07/03/2025 22:54:08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1251561515</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Salchipapa</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>07/03/2025 22:54:57</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1251561515</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Gorro de baño</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>07/03/2025 22:55:02</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Pendiente</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/consumos.xlsx
+++ b/data/consumos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,32 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Categoría</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Fecha_Hora</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Estado</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Total</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Estado</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Categoría</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Metodo_Pago</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Referencia</t>
         </is>
       </c>
     </row>

--- a/data/consumos.xlsx
+++ b/data/consumos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,40 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>chochos</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Comida</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-03-14 13:01:01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pendiente</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
